--- a/medicine/Mort/Décès_en_1925/Décès_en_1925.xlsx
+++ b/medicine/Mort/Décès_en_1925/Décès_en_1925.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1925</t>
+          <t>Décès_en_1925</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1925</t>
+          <t>Décès_en_1925</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,25 +540,98 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Auguste Auglay, peintre et affichiste français (° 1853).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Auguste Auglay, peintre et affichiste français (° 1853).
 Jan Chełmiński, peintre de bataille polonais (° 27 janvier 1851).
 Jules Contencin, peintre français (° 26 novembre 1851).
 Paul-Laurent Courtot, peintre français (° 1856).
 Louis Delfosse, peintre français (° 1863).
 Auguste Larriu, organiste et compositeur français (° 17 septembre 1840).
-Itamar Tavares, ingénieur, footballeur et dirigeant de club sportif brésilien (° 1890).
-Janvier
-1er janvier : Georg Mühlberg, peintre, dessinateur et illustrateur allemand (° 5 février 1863).
+Itamar Tavares, ingénieur, footballeur et dirigeant de club sportif brésilien (° 1890).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Georg Mühlberg, peintre, dessinateur et illustrateur allemand (° 5 février 1863).
 4 janvier :
 Hirase Sakugorō, botaniste et peintre japonais (° 11 février 1856).
 Ernest Lessieux, peintre, aquarelliste et dessinateur français (° 3 août 1848).
 8 janvier : Fernand Sanz, coureur cycliste français (° 28 février 1881).
 12 janvier : Walter Dieckmann, chimiste allemand (° 8 octobre 1869)
 21 janvier : Maurice Loutreuil, peintre français (° 16 mars 1885).
-30 janvier : Karl Hauss, homme politique allemand (° 30 janvier 1871)
-Février
-1er février : Song Pyŏngjun, homme politique coréen (° 20 août 1857).
+30 janvier : Karl Hauss, homme politique allemand (° 30 janvier 1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Song Pyŏngjun, homme politique coréen (° 20 août 1857).
 2 février : Jaap Eden, coureur cycliste et patineur de vitesse néerlandais (° 19 octobre 1873).
 3 février : Eduard Gebhardt, peintre allemand, professeur de l'Académie des beaux-arts de Düsseldorf  (° 13 juin 1838).
 4 février :
@@ -556,9 +641,43 @@
 21 février : Jean-André Rixens, peintre français (° 30 novembre 1846).
 23 février : Joris Helleputte, architecte et homme politique belge (° 31 août 1852).
 25 février : Jacques Patissou, peintre français (° 9 mars 1880).
-28 février : Friedrich Ebert, président allemand (° 4 février 1871).
-Mars
-2 mars : Luigj Gurakuqi, homme d'État, politique et diplomate albanais (° 19 février 1879).
+28 février : Friedrich Ebert, président allemand (° 4 février 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Luigj Gurakuqi, homme d'État, politique et diplomate albanais (° 19 février 1879).
 3 mars :
 Clément Ader, ingénieur français, pionnier de l'aviation  (° 2 avril 1841).
 William Pugsley, premier ministre du Nouveau-Brunswick (° 27 septembre 1850).
@@ -572,9 +691,43 @@
 26 mars : Edmond Colsenet, philosophe français (° 1847).
 27 mars : Oscar Depuydt, compositeur, organiste et pédagogue belge (° 20 octobre 1858).
 29 mars : Bajram Curri, homme politique et activiste albanais (° 1862).
-30 mars : Rudolf Steiner, philosophe et fondateur de l'anthroposophie autrichien (° 25 février 1861).
-Avril
-1er avril : Emma Dobigny, modèle française (°21 janvier 1851)
+30 mars : Rudolf Steiner, philosophe et fondateur de l'anthroposophie autrichien (° 25 février 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Emma Dobigny, modèle française (°21 janvier 1851)
 2 avril :
 Louis Gaidan, peintre français (° 9 avril 1847).
 Eduard von Grützner, peintre allemand (° 26 mai 1846).
@@ -582,9 +735,43 @@
 Konstantin Georgiev, militaire et homme politique bulgare (° 25 août 1873).
 John Singer Sargent, peintre américain (° 12 janvier 1856).
 15 avril : Marie de La Hire, romancière, poétesse et peintre française (° 20 mars 1878).
-17 avril : Marie-Félix-Hippolyte Lucas, peintre français (° 9 octobre 1852).
-Mai
-2 mai :
+17 avril : Marie-Félix-Hippolyte Lucas, peintre français (° 9 octobre 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai :
 Adrien Bas, peintre français (° 16 avril 1884).
 Prosper Mortou, musicien français (° 23 octobre 1862).
 Johann Palisa, astronome autrichien (°6 décembre 1848).
@@ -602,18 +789,86 @@
 23 mai : Jan Hillebrand Wijsmuller, peintre néerlandais (° 3 février 1855).
 31 mai :
 « Cara Ancha » (José Sánchez del Campo), matador espagnol (° 8 mai 1848).
-Armando Spadini, peintre italien (° 29 juillet 1883).
-Juin
-3 juin : Camille Flammarion, astronome français (° 26 février 1842).
+Armando Spadini, peintre italien (° 29 juillet 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 juin : Camille Flammarion, astronome français (° 26 février 1842).
 7 juin : Matt Talbot, ouvrier irlandais (déclaré Vénérable de l' Eglise Catholique en 1975) (° 2 mai 1856).
 15 juin : Victor Koos, peintre français (° 12 novembre 1863).
 16 juin : Lucie Cousturier,  peintre et écrivain française (° 19 décembre 1876).
 22 juin : Felix Klein, mathématicien allemand (° 25 avril 1849).
 25 juin : Mario Nevi, footballeur italien (° 1889).
 27 juin : Mademoiselle Antonine, actrice de théâtre française (° 1er juin 1841).
-30 juin : Jean-Paul Louis Martin des Amoignes, peintre français (° 4 juin 1850).
-Juillet
-1er juillet :
+30 juin : Jean-Paul Louis Martin des Amoignes, peintre français (° 4 juin 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet :
 Erik Satie, compositeur et pianiste français (° 17 mai 1866).
 Jan Veth, peintre, graveur, poète, critique d'art, professeur d'histoire de l'art et d'esthétique néerlandais (° 18 mai 1864).
 6 juillet : Antoine Taudou, violoniste et compositeur français (° 24 août 1846).
@@ -623,29 +878,165 @@
 Ephraim Moses Lilien, photographe, illustrateur et graveur Art nouveau allemand (° 23 mai 1874).
 28 juillet : Léon Lhermitte, peintre et graveur naturaliste français (° 31 juillet 1844).
 29 juillet : Jakob Reumann, homme politique autrichien (° 31 décembre 1853).
-? juillet : Karl Cartier, peintre français (° 5 septembre 1855).
-Août
-7 août : Edmond Marie Petitjean, peintre français (° 5 juillet 1844).
+? juillet : Karl Cartier, peintre français (° 5 septembre 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7 août : Edmond Marie Petitjean, peintre français (° 5 juillet 1844).
 15 août : Adam Beck, homme politique ontarien (° 20 juin 1857).
 18 août :
 Gaston Cyprès, footballeur Français (° 19 novembre 1884).
 Varlam Tcherkezichvili, activiste anarchiste et journaliste géorgien de nationalité russe (° 15 septembre 1846).
 22 août : Vojtěch Hynais, peintre austro-hongrois puis tchécoslovaque (° 14 décembre 1854).
-27 août : Albert-Antoine Lambert, peintre français (° 10 avril 1854).
-Septembre
-1er septembre : Allan Riverstone McCulloch, zoologiste australien (° 20 juin 1885).
+27 août : Albert-Antoine Lambert, peintre français (° 10 avril 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Allan Riverstone McCulloch, zoologiste australien (° 20 juin 1885).
 9 septembre : Eugène Goblet d'Alviella, homme politique et professeur d'histoire des religions belge (° 10 août 1846).
 15 septembre : Giuseppe Pennella, général italien (° 8 août 1864).
 18 septembre : Joseph-Dominique Guay, homme d'affaires Québec, Saguenay (ville) (° 14 avril 1866).
 24 septembre : Gustave Fayet, peintre et  collectionneur français (° 20 mai 1865).
-25 septembre : Charles Cottet, peintre et graveur français (° 12 juillet 1863).
-Octobre
-1er octobre : Denis Henry, homme politique britannique (° 7 mars 1864).
+25 septembre : Charles Cottet, peintre et graveur français (° 12 juillet 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Denis Henry, homme politique britannique (° 7 mars 1864).
 4 octobre : « Nacional II » (Juan Anlló y Orío), matador espagnol (° 11 janvier 1898).
 10 octobre : Mary Renard, peintre française et conservatrice au musée d'Alençon (° 23 août 1849).
-31 octobre : Max Linder, acteur et réalisateur français (° 16 décembre 1883).
-Novembre
-1er novembre : Lester Cuneo, acteur et producteur de cinéma américain (° 25 octobre 1888).
+31 octobre : Max Linder, acteur et réalisateur français (° 16 décembre 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Lester Cuneo, acteur et producteur de cinéma américain (° 25 octobre 1888).
 9 novembre : Joseph Claussat, homme politique français (° 12 octobre 1874).
 11 novembre : Giuseppe Azzini, coureur cycliste italien (° 26 mars 1891).
 13 novembre :
@@ -653,9 +1044,43 @@
 Eduardo María Schilling Monfort, footballeur allemand (° 1852).
 23 novembre : Dimitrie Hârlescu, peintre roumain (° 5 novembre 1872).
 24 novembre : Supayalat, reine de Birmanie (° 13 décembre 1859).
-27 novembre : Roger de La Fresnaye, peintre cubiste et sculpteur français (° 11 juillet 1885).
-Décembre
-2 décembre : Gaston Roullet, peintre et illustrateur français (° 15 novembre 1847).
+27 novembre : Roger de La Fresnaye, peintre cubiste et sculpteur français (° 11 juillet 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1925</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1925</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Gaston Roullet, peintre et illustrateur français (° 15 novembre 1847).
 5 décembre : Władysław Reymont, écrivain polonais (° 7 mai 1867).
 8 décembre : Edmond van Eetvelde, homme politique et diplomate belge (° 21 avril 1852).
 9 décembre : Eugène Gigout, compositeur et organiste français (° 23 mars 1844).
